--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Capstone_2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\UiPath\Shireen_Capstone_2_Final\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AB5B93-E773-46E6-B06E-1F39FBDEC45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5E90BB-9604-4615-9166-43ADD8CC9F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -186,6 +186,81 @@
   </si>
   <si>
     <t>https://acme-test.uipath.com/work-items</t>
+  </si>
+  <si>
+    <t>TimeOut</t>
+  </si>
+  <si>
+    <t>LoginPageNotLoading</t>
+  </si>
+  <si>
+    <t>ACME login page is not loading</t>
+  </si>
+  <si>
+    <t>InvalidCredentials</t>
+  </si>
+  <si>
+    <t>Username and password is not matching</t>
+  </si>
+  <si>
+    <t>HomePageNotLoading</t>
+  </si>
+  <si>
+    <t>ACME home page not loading</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/reports/download</t>
+  </si>
+  <si>
+    <t>MonthlyReport</t>
+  </si>
+  <si>
+    <t>"Data\Input\"+MonthFolder.FullName</t>
+  </si>
+  <si>
+    <t>MonthlyReportsFolder</t>
+  </si>
+  <si>
+    <t>MonthlyReportPath</t>
+  </si>
+  <si>
+    <t>"Data\\Input\\MonthlyReport-"</t>
+  </si>
+  <si>
+    <t>DownloadMonthlyReportNotLoading</t>
+  </si>
+  <si>
+    <t>ACME monthly report download page is not loading</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>MonthlyReportDownloadedPath</t>
+  </si>
+  <si>
+    <t>PopNotAvailable</t>
+  </si>
+  <si>
+    <t>Confirmation id in the popup is not available</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/update/</t>
+  </si>
+  <si>
+    <t>UpdateWorkItemsUrl</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/reports/upload</t>
+  </si>
+  <si>
+    <t>YearlyReportUploadUrl</t>
+  </si>
+  <si>
+    <t>"C:\Users\hp\Documents\UiPath\Shireen_Capstone_2_Final\Data\Input\"+MonthFolder.FullName+"\"+month</t>
+  </si>
+  <si>
+    <t>"C:\Users\hp\Documents\UiPath\Shireen_Capstone_2_Final\Data\Output\Yearly-Report-2023-"+VendorId+".xlsx"</t>
   </si>
 </sst>
 </file>
@@ -237,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -247,7 +322,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,9 +340,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -306,7 +380,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -412,7 +486,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -554,7 +628,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -568,12 +642,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -621,7 +695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -633,7 +707,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="30">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1648,16 +1722,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1694,7 +1768,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1705,7 +1779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1819,7 +1893,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1858,37 +1932,135 @@
       <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2839,14 +3011,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="60.26953125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\UiPath\Shireen_Capstone_2_Final\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Capstone_2_A\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5E90BB-9604-4615-9166-43ADD8CC9F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71432A41-6C51-49F3-9B7B-5864AC2C910D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -161,12 +161,6 @@
     <t>https://acme-test.uipath.com/login</t>
   </si>
   <si>
-    <t>Sha1Url</t>
-  </si>
-  <si>
-    <t>http://www.sha1-online.com/</t>
-  </si>
-  <si>
     <t>Training</t>
   </si>
   <si>
@@ -261,13 +255,58 @@
   </si>
   <si>
     <t>"C:\Users\hp\Documents\UiPath\Shireen_Capstone_2_Final\Data\Output\Yearly-Report-2023-"+VendorId+".xlsx"</t>
+  </si>
+  <si>
+    <t>AcmeCredentials</t>
+  </si>
+  <si>
+    <t>Acme username and password</t>
+  </si>
+  <si>
+    <t>Url for ACME login page</t>
+  </si>
+  <si>
+    <t>Url for ACME home page</t>
+  </si>
+  <si>
+    <t>Url for ACME work items page</t>
+  </si>
+  <si>
+    <t>Url for ACME monthly report download page</t>
+  </si>
+  <si>
+    <t>Delay for Check app state</t>
+  </si>
+  <si>
+    <t>Exception message if the ACME login page is not loading</t>
+  </si>
+  <si>
+    <t>Exception message if the username and password doesnot match</t>
+  </si>
+  <si>
+    <t>Exception message if the ACME home page is not loading</t>
+  </si>
+  <si>
+    <t>Exception message if Downloading monthly report page is not loading</t>
+  </si>
+  <si>
+    <t>Year from which all the reports should be downloaded</t>
+  </si>
+  <si>
+    <t>Exception message if the confirmation popup is not available</t>
+  </si>
+  <si>
+    <t>Url for the ACME work items update page</t>
+  </si>
+  <si>
+    <t>Url for the ACME yearly report upload page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -291,6 +330,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF464E55"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -322,6 +367,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,9 +386,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -380,7 +426,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -486,7 +532,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -628,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,16 +684,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -686,28 +732,28 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="29">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -718,7 +764,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1720,18 +1776,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="104.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1768,7 +1824,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1779,7 +1835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1893,7 +1949,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="29">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1911,13 +1967,19 @@
       <c r="B18" t="s">
         <v>44</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
@@ -1927,29 +1989,41 @@
       <c r="B20" t="s">
         <v>51</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="B23">
-        <v>5</v>
+      <c r="C23" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -1959,6 +2033,9 @@
       <c r="B24" t="s">
         <v>56</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
@@ -1967,100 +2044,111 @@
       <c r="B25" t="s">
         <v>58</v>
       </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="B29">
+        <v>2023</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31">
-        <v>2023</v>
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="B32" t="s">
-        <v>77</v>
+      <c r="C32" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2999,8 +3087,6 @@
     <row r="984" ht="14.25" customHeight="1"/>
     <row r="985" ht="14.25" customHeight="1"/>
     <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3015,12 +3101,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="3" max="3" width="60.26953125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Capstone_2_A\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Capstone_2_f\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71432A41-6C51-49F3-9B7B-5864AC2C910D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7AFE1E-25CE-4FF2-9657-4FD3CDCD0945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -209,18 +209,6 @@
     <t>MonthlyReport</t>
   </si>
   <si>
-    <t>"Data\Input\"+MonthFolder.FullName</t>
-  </si>
-  <si>
-    <t>MonthlyReportsFolder</t>
-  </si>
-  <si>
-    <t>MonthlyReportPath</t>
-  </si>
-  <si>
-    <t>"Data\\Input\\MonthlyReport-"</t>
-  </si>
-  <si>
     <t>DownloadMonthlyReportNotLoading</t>
   </si>
   <si>
@@ -230,9 +218,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>MonthlyReportDownloadedPath</t>
-  </si>
-  <si>
     <t>PopNotAvailable</t>
   </si>
   <si>
@@ -251,12 +236,6 @@
     <t>YearlyReportUploadUrl</t>
   </si>
   <si>
-    <t>"C:\Users\hp\Documents\UiPath\Shireen_Capstone_2_Final\Data\Input\"+MonthFolder.FullName+"\"+month</t>
-  </si>
-  <si>
-    <t>"C:\Users\hp\Documents\UiPath\Shireen_Capstone_2_Final\Data\Output\Yearly-Report-2023-"+VendorId+".xlsx"</t>
-  </si>
-  <si>
     <t>AcmeCredentials</t>
   </si>
   <si>
@@ -300,6 +279,24 @@
   </si>
   <si>
     <t>Url for the ACME yearly report upload page</t>
+  </si>
+  <si>
+    <t>MonthlyReportDownloadPath</t>
+  </si>
+  <si>
+    <t>YearlyReportPath</t>
+  </si>
+  <si>
+    <t>C:\Users\Shireen.M\Documents\UiPath\Shireen_Capstone_2_f\Data\Output\Yearly-Report-2023-</t>
+  </si>
+  <si>
+    <t>C:\Users\Shireen.M\Documents\UiPath\Shireen_Capstone_2_f\Data\Input\</t>
+  </si>
+  <si>
+    <t>Path where monthly downloaded report is present</t>
+  </si>
+  <si>
+    <t>Path where yearly report is present</t>
   </si>
 </sst>
 </file>
@@ -684,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -766,13 +763,13 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1776,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z986"/>
+  <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1968,7 +1965,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -1979,7 +1976,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
@@ -1990,7 +1987,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -2001,7 +1998,7 @@
         <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -2012,7 +2009,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
@@ -2023,7 +2020,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -2034,7 +2031,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
@@ -2045,110 +2042,102 @@
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="B26" t="s">
-        <v>61</v>
+      <c r="C26" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
         <v>63</v>
       </c>
-      <c r="B27" t="s">
-        <v>64</v>
+      <c r="B27">
+        <v>2023</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
         <v>67</v>
       </c>
-      <c r="B29">
-        <v>2023</v>
+      <c r="B29" t="s">
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
         <v>68</v>
       </c>
-      <c r="B30" t="s">
-        <v>75</v>
+      <c r="C30" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>88</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -3083,10 +3072,6 @@
     <row r="980" ht="14.25" customHeight="1"/>
     <row r="981" ht="14.25" customHeight="1"/>
     <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
